--- a/[Cxx2xG1]_DailyReport_AccountName.xlsx
+++ b/[Cxx2xG1]_DailyReport_AccountName.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codegym\Module_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6622A3ED-0B58-47BE-B2F2-4F048FF23C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABC772B-F534-4564-895F-DD53A0C55EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="126">
   <si>
     <t>No</t>
   </si>
@@ -680,13 +680,21 @@
     <t>Planned end date</t>
   </si>
   <si>
-    <t>[Study Blackbox TC]  5.10.1. Xem thống kê</t>
-  </si>
-  <si>
-    <t>[Write Blackbox TC]  5.10.1. Xem thống kê</t>
-  </si>
-  <si>
-    <t>[Coding Spring] 5.10.1 Xem thống kê</t>
+    <t>[Interview Question] day5</t>
+  </si>
+  <si>
+    <t>[Project Badminton Store] Xây dựng chức năng Login và phân quyền.
+Lấy và chạy demo về máy để đọc hiểu.</t>
+  </si>
+  <si>
+    <t>[Presentation] Collection</t>
+  </si>
+  <si>
+    <t>[Project Badminton Store] 1.Xây dựng chức năng Login và phân quyền.
+Lấy và chạy demo về máy để đọc hiểu.</t>
+  </si>
+  <si>
+    <t>[Interview Question] day6</t>
   </si>
 </sst>
 </file>
@@ -1090,41 +1098,43 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1633,8 +1643,8 @@
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" s="28"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
@@ -1651,14 +1661,14 @@
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75" t="s">
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="75"/>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
@@ -1670,14 +1680,14 @@
       <c r="C16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77" t="s">
+      <c r="E16" s="81"/>
+      <c r="F16" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="77"/>
+      <c r="G16" s="82"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
@@ -1925,8 +1935,8 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
@@ -1944,14 +1954,14 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75" t="s">
+      <c r="E17" s="80"/>
+      <c r="F17" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="75"/>
+      <c r="G17" s="80"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
@@ -1963,14 +1973,14 @@
       <c r="C18" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="77" t="s">
+      <c r="E18" s="81"/>
+      <c r="F18" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="77"/>
+      <c r="G18" s="82"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
@@ -2214,8 +2224,8 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
@@ -2233,14 +2243,14 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75" t="s">
+      <c r="E17" s="80"/>
+      <c r="F17" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="75"/>
+      <c r="G17" s="80"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
@@ -2252,14 +2262,14 @@
       <c r="C18" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="77" t="s">
+      <c r="E18" s="81"/>
+      <c r="F18" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="77"/>
+      <c r="G18" s="82"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
@@ -2508,8 +2518,8 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
@@ -2527,14 +2537,14 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75" t="s">
+      <c r="E17" s="80"/>
+      <c r="F17" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="75"/>
+      <c r="G17" s="80"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
@@ -2546,14 +2556,14 @@
       <c r="C18" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="77" t="s">
+      <c r="E18" s="81"/>
+      <c r="F18" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="77"/>
+      <c r="G18" s="82"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
@@ -2756,8 +2766,8 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
@@ -2775,14 +2785,14 @@
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75" t="s">
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="75"/>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
@@ -2794,14 +2804,14 @@
       <c r="C16" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77" t="s">
+      <c r="E16" s="81"/>
+      <c r="F16" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="77"/>
+      <c r="G16" s="82"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
@@ -3004,8 +3014,8 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
@@ -3023,14 +3033,14 @@
       <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="75" t="s">
+      <c r="D15" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75" t="s">
+      <c r="E15" s="80"/>
+      <c r="F15" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="75"/>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
@@ -3042,14 +3052,14 @@
       <c r="C16" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="77" t="s">
+      <c r="E16" s="81"/>
+      <c r="F16" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="77"/>
+      <c r="G16" s="82"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
@@ -3071,21 +3081,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219790EA-458E-8742-A994-C156362F6DD8}">
   <dimension ref="A4:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="83" customWidth="1"/>
-    <col min="2" max="2" width="43" style="83" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" style="84" customWidth="1"/>
-    <col min="4" max="4" width="19" style="83" customWidth="1"/>
-    <col min="5" max="5" width="22.77734375" style="83" customWidth="1"/>
-    <col min="6" max="7" width="18.77734375" style="83" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" style="83" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" style="83" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="83"/>
+    <col min="1" max="1" width="7.77734375" style="74" customWidth="1"/>
+    <col min="2" max="2" width="50.77734375" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" style="75" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.77734375" style="74" customWidth="1"/>
+    <col min="6" max="7" width="18.77734375" style="74" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" style="74" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" style="74" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="74"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -3113,7 +3123,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="76" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3127,14 +3137,14 @@
       <c r="C9" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="79" t="s">
+      <c r="E9" s="85"/>
+      <c r="F9" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="80"/>
+      <c r="G9" s="85"/>
       <c r="H9" s="61" t="s">
         <v>14</v>
       </c>
@@ -3148,10 +3158,10 @@
       </c>
       <c r="B10" s="64"/>
       <c r="C10" s="65"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="66"/>
       <c r="I10" s="67"/>
     </row>
@@ -3161,10 +3171,10 @@
       </c>
       <c r="B11" s="64"/>
       <c r="C11" s="65"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
       <c r="H11" s="66"/>
       <c r="I11" s="67"/>
     </row>
@@ -3174,10 +3184,10 @@
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="65"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="66"/>
       <c r="I12" s="67"/>
     </row>
@@ -3187,10 +3197,10 @@
       </c>
       <c r="B13" s="64"/>
       <c r="C13" s="65"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="66"/>
       <c r="I13" s="67"/>
     </row>
@@ -3203,7 +3213,7 @@
       <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="76" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3227,38 +3237,38 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A17" s="63">
         <v>1</v>
       </c>
-      <c r="B17" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="65">
-        <v>44939</v>
-      </c>
-      <c r="D17" s="65">
-        <v>44939</v>
-      </c>
-      <c r="E17" s="66" t="s">
+      <c r="B17" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="77">
+        <v>44981</v>
+      </c>
+      <c r="D17" s="77">
+        <v>44981</v>
+      </c>
+      <c r="E17" s="63" t="s">
         <v>112</v>
       </c>
       <c r="F17" s="67"/>
     </row>
-    <row r="18" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="63">
         <v>2</v>
       </c>
-      <c r="B18" s="64" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="65">
-        <v>44939</v>
-      </c>
-      <c r="D18" s="65">
-        <v>44939</v>
-      </c>
-      <c r="E18" s="66" t="s">
+      <c r="B18" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="77">
+        <v>44981</v>
+      </c>
+      <c r="D18" s="77">
+        <v>44981</v>
+      </c>
+      <c r="E18" s="63" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="67"/>
@@ -3267,20 +3277,28 @@
       <c r="A19" s="63">
         <v>3</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="66"/>
+      <c r="B19" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="77">
+        <v>44981</v>
+      </c>
+      <c r="D19" s="77">
+        <v>44981</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>112</v>
+      </c>
       <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="63">
         <v>4</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="66"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="63"/>
       <c r="F20" s="67"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -3293,7 +3311,7 @@
       <c r="G21" s="72"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="76" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3311,54 +3329,60 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A24" s="63">
         <v>1</v>
       </c>
-      <c r="B24" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="87">
-        <v>44957</v>
-      </c>
-      <c r="D24" s="67"/>
+      <c r="B24" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="77">
+        <v>44985</v>
+      </c>
+      <c r="D24" s="77">
+        <v>44985</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="63">
         <v>2</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="67"/>
+      <c r="B25" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="77">
+        <v>44985</v>
+      </c>
+      <c r="D25" s="77">
+        <v>44985</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="63">
-        <v>3</v>
-      </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="67"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="63">
         <v>4</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="67"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14" xr:uid="{1DDD7E7C-342A-4BC7-859C-E14A4ADBCDD7}">
@@ -3572,8 +3596,8 @@
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
       <c r="B14" s="28"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
@@ -3590,14 +3614,14 @@
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="75"/>
+      <c r="G16" s="80"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
@@ -3609,14 +3633,14 @@
       <c r="C17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77" t="s">
+      <c r="E17" s="81"/>
+      <c r="F17" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="77"/>
+      <c r="G17" s="82"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
@@ -3944,8 +3968,8 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
     </row>
     <row r="20" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
@@ -3963,14 +3987,14 @@
       <c r="C21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75" t="s">
+      <c r="E21" s="80"/>
+      <c r="F21" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="75"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" s="21" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
@@ -3982,14 +4006,14 @@
       <c r="C22" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77" t="s">
+      <c r="E22" s="81"/>
+      <c r="F22" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="77"/>
+      <c r="G22" s="82"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
@@ -4262,8 +4286,8 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
@@ -4281,14 +4305,14 @@
       <c r="C18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75" t="s">
+      <c r="E18" s="80"/>
+      <c r="F18" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="75"/>
+      <c r="G18" s="80"/>
     </row>
     <row r="19" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
@@ -4300,14 +4324,14 @@
       <c r="C19" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77" t="s">
+      <c r="E19" s="81"/>
+      <c r="F19" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="77"/>
+      <c r="G19" s="82"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
@@ -4575,8 +4599,8 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
     </row>
     <row r="17" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
@@ -4594,14 +4618,14 @@
       <c r="C18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75" t="s">
+      <c r="E18" s="80"/>
+      <c r="F18" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="75"/>
+      <c r="G18" s="80"/>
     </row>
     <row r="19" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
@@ -4613,14 +4637,14 @@
       <c r="C19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="76"/>
-      <c r="F19" s="77" t="s">
+      <c r="E19" s="81"/>
+      <c r="F19" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="77"/>
+      <c r="G19" s="82"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
@@ -4806,8 +4830,8 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
@@ -4825,23 +4849,23 @@
       <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75" t="s">
+      <c r="E14" s="80"/>
+      <c r="F14" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="75"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="33"/>
       <c r="C15" s="34"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
@@ -5095,8 +5119,8 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
@@ -5114,23 +5138,23 @@
       <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75" t="s">
+      <c r="E17" s="80"/>
+      <c r="F17" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="75"/>
+      <c r="G17" s="80"/>
     </row>
     <row r="18" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="33"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
@@ -5358,8 +5382,8 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
@@ -5377,23 +5401,23 @@
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="75"/>
+      <c r="G16" s="80"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="33"/>
       <c r="C17" s="38"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
@@ -5623,8 +5647,8 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
@@ -5642,14 +5666,14 @@
       <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75" t="s">
+      <c r="E16" s="80"/>
+      <c r="F16" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="75"/>
+      <c r="G16" s="80"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
@@ -5661,14 +5685,14 @@
       <c r="C17" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77" t="s">
+      <c r="E17" s="81"/>
+      <c r="F17" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="77"/>
+      <c r="G17" s="82"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>

--- a/[Cxx2xG1]_DailyReport_AccountName.xlsx
+++ b/[Cxx2xG1]_DailyReport_AccountName.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codegym\Module_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABC772B-F534-4564-895F-DD53A0C55EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A444D1-001E-48A3-A2D0-60E98EC1D2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="125">
   <si>
     <t>No</t>
   </si>
@@ -680,21 +680,19 @@
     <t>Planned end date</t>
   </si>
   <si>
-    <t>[Interview Question] day5</t>
-  </si>
-  <si>
     <t>[Project Badminton Store] Xây dựng chức năng Login và phân quyền.
 Lấy và chạy demo về máy để đọc hiểu.</t>
   </si>
   <si>
-    <t>[Presentation] Collection</t>
-  </si>
-  <si>
-    <t>[Project Badminton Store] 1.Xây dựng chức năng Login và phân quyền.
-Lấy và chạy demo về máy để đọc hiểu.</t>
-  </si>
-  <si>
-    <t>[Interview Question] day6</t>
+    <t>[Interview Question] day7</t>
+  </si>
+  <si>
+    <t>[Project Badminton Store]Tạo trang chủ hiển thị danh sách toàn bộ các sách (trang này sẽ hiển thị cho người dùng, nên cần sử dụng card giống ở bootstrap). Và sắp xếp theo sách mới nhất.
+Mỗi sách sẽ có button Thêm vào giỏ hàng + số lượng.
+cần</t>
+  </si>
+  <si>
+    <t>[Interview Question] day8</t>
   </si>
 </sst>
 </file>
@@ -3242,13 +3240,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C17" s="77">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="D17" s="77">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>112</v>
@@ -3260,13 +3258,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C18" s="77">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="D18" s="77">
-        <v>44981</v>
+        <v>44986</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>112</v>
@@ -3277,18 +3275,7 @@
       <c r="A19" s="63">
         <v>3</v>
       </c>
-      <c r="B19" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="77">
-        <v>44981</v>
-      </c>
-      <c r="D19" s="77">
-        <v>44981</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>112</v>
-      </c>
+      <c r="E19" s="63"/>
       <c r="F19" s="67"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -3329,18 +3316,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A24" s="63">
         <v>1</v>
       </c>
       <c r="B24" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="77">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="D24" s="77">
-        <v>44985</v>
+        <v>44987</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -3348,17 +3335,19 @@
         <v>2</v>
       </c>
       <c r="B25" s="78" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="77">
-        <v>44985</v>
+        <v>44987</v>
       </c>
       <c r="D25" s="77">
-        <v>44985</v>
+        <v>44987</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="63"/>
+      <c r="A26" s="63">
+        <v>3</v>
+      </c>
       <c r="B26" s="78"/>
       <c r="C26" s="77"/>
       <c r="D26" s="77"/>
@@ -3373,16 +3362,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14" xr:uid="{1DDD7E7C-342A-4BC7-859C-E14A4ADBCDD7}">

--- a/[Cxx2xG1]_DailyReport_AccountName.xlsx
+++ b/[Cxx2xG1]_DailyReport_AccountName.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codegym\Module_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A444D1-001E-48A3-A2D0-60E98EC1D2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66504B74-844D-473D-A235-E5A4C68832DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="126">
   <si>
     <t>No</t>
   </si>
@@ -680,19 +680,19 @@
     <t>Planned end date</t>
   </si>
   <si>
-    <t>[Project Badminton Store] Xây dựng chức năng Login và phân quyền.
-Lấy và chạy demo về máy để đọc hiểu.</t>
-  </si>
-  <si>
-    <t>[Interview Question] day7</t>
-  </si>
-  <si>
-    <t>[Project Badminton Store]Tạo trang chủ hiển thị danh sách toàn bộ các sách (trang này sẽ hiển thị cho người dùng, nên cần sử dụng card giống ở bootstrap). Và sắp xếp theo sách mới nhất.
-Mỗi sách sẽ có button Thêm vào giỏ hàng + số lượng.
-cần</t>
-  </si>
-  <si>
-    <t>[Interview Question] day8</t>
+    <t xml:space="preserve">[Presentation]  Cho hai mảng số nguyên. tìm những số trùng nhau. </t>
+  </si>
+  <si>
+    <t>[Interview Question] day12</t>
+  </si>
+  <si>
+    <t>[Interview Question] day11</t>
+  </si>
+  <si>
+    <t>[Project Badminton Store] Xây dựng chức năng giỏ hàng và thanh toán bằng Paypal.Lấy và chạy demo về máy để đọc hiểu.</t>
+  </si>
+  <si>
+    <t>[Project Badminton Store]Xây dựng chức năng giỏ hàng và thanh toán bằng Paypal</t>
   </si>
 </sst>
 </file>
@@ -3079,8 +3079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219790EA-458E-8742-A994-C156362F6DD8}">
   <dimension ref="A4:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3240,13 +3240,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="78" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C17" s="77">
-        <v>44986</v>
+        <v>44993</v>
       </c>
       <c r="D17" s="77">
-        <v>44986</v>
+        <v>44993</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>112</v>
@@ -3258,22 +3258,31 @@
         <v>2</v>
       </c>
       <c r="B18" s="78" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C18" s="77">
-        <v>44986</v>
+        <v>44993</v>
       </c>
       <c r="D18" s="77">
-        <v>44986</v>
+        <v>44993</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>112</v>
       </c>
       <c r="F18" s="67"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19" s="63">
         <v>3</v>
+      </c>
+      <c r="B19" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="77">
+        <v>44993</v>
+      </c>
+      <c r="D19" s="77">
+        <v>44993</v>
       </c>
       <c r="E19" s="63"/>
       <c r="F19" s="67"/>
@@ -3316,18 +3325,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A24" s="63">
         <v>1</v>
       </c>
       <c r="B24" s="78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C24" s="77">
-        <v>44987</v>
+        <v>44994</v>
       </c>
       <c r="D24" s="77">
-        <v>44987</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -3335,13 +3344,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="78" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C25" s="77">
-        <v>44987</v>
+        <v>44994</v>
       </c>
       <c r="D25" s="77">
-        <v>44987</v>
+        <v>44994</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -3362,16 +3371,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14" xr:uid="{1DDD7E7C-342A-4BC7-859C-E14A4ADBCDD7}">
